--- a/RegressionTrainingData.xlsx
+++ b/RegressionTrainingData.xlsx
@@ -80,10 +80,10 @@
     <t>PRES4</t>
   </si>
   <si>
-    <t>wS1</t>
+    <t>HR</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>WS1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:X1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
@@ -537,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
